--- a/化工/data_input/乙二醇加权利润-7DMA.xlsx
+++ b/化工/data_input/乙二醇加权利润-7DMA.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3619"/>
+  <dimension ref="A1:C3623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34944,7 +34944,7 @@
         <v>45950</v>
       </c>
       <c r="B3615" t="n">
-        <v>-483.457</v>
+        <v>-483.4563</v>
       </c>
       <c r="C3615" t="n">
         <v>153.4004</v>
@@ -34955,7 +34955,7 @@
         <v>45951</v>
       </c>
       <c r="B3616" t="n">
-        <v>-467.8907</v>
+        <v>-467.8893</v>
       </c>
       <c r="C3616" t="n">
         <v>153.4004</v>
@@ -34966,7 +34966,7 @@
         <v>45952</v>
       </c>
       <c r="B3617" t="n">
-        <v>-471.2786</v>
+        <v>-471.2618</v>
       </c>
       <c r="C3617" t="n">
         <v>153.4004</v>
@@ -34977,7 +34977,7 @@
         <v>45953</v>
       </c>
       <c r="B3618" t="n">
-        <v>-476.3297</v>
+        <v>-476.2404</v>
       </c>
       <c r="C3618" t="n">
         <v>153.4004</v>
@@ -34988,11 +34988,49 @@
         <v>45954</v>
       </c>
       <c r="B3619" t="n">
-        <v>-478.5839</v>
+        <v>-480.6991</v>
       </c>
       <c r="C3619" t="n">
         <v>153.4004</v>
       </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" s="2" t="n">
+        <v>45955</v>
+      </c>
+      <c r="B3620" t="inlineStr"/>
+      <c r="C3620" t="n">
+        <v>153.4004</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="B3621" t="inlineStr"/>
+      <c r="C3621" t="n">
+        <v>153.4004</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3622" t="n">
+        <v>-484.9017</v>
+      </c>
+      <c r="C3622" t="n">
+        <v>153.4004</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3623" t="n">
+        <v>-491.3599</v>
+      </c>
+      <c r="C3623" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
